--- a/DEV/org.openl.test/test/rules/functionality/Math.xlsx
+++ b/DEV/org.openl.test/test/rules/functionality/Math.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\DEV\org.openl.test\test\rules\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="105" windowWidth="16140" windowHeight="9210" tabRatio="765"/>
+    <workbookView xWindow="285" yWindow="105" windowWidth="16140" windowHeight="9210" tabRatio="765" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="5" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <sheet name="nextAfter" sheetId="22" r:id="rId17"/>
     <sheet name="random" sheetId="44" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -36,7 +41,7 @@
     <author>Polina Kaziuchyts</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0">
+    <comment ref="C80" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E85" authorId="0">
+    <comment ref="E85" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E101" authorId="0">
+    <comment ref="E101" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +157,7 @@
     <author>Polina Kaziuchyts</author>
   </authors>
   <commentList>
-    <comment ref="D50" authorId="0">
+    <comment ref="D50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0">
+    <comment ref="D51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +346,7 @@
     <author>Polina Kaziuchyts</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0">
+    <comment ref="D12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0">
+    <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0">
+    <comment ref="D20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0">
+    <comment ref="D41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="0">
+    <comment ref="D42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0">
+    <comment ref="D43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -533,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D44" authorId="0">
+    <comment ref="D44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1434,18 +1439,12 @@
     <t>Method Double randomMethod()</t>
   </si>
   <si>
-    <t>Method Double formatMethod_formatter (Double a, String fmt)</t>
-  </si>
-  <si>
     <t>return format(a, fmt);</t>
   </si>
   <si>
     <t>return format(a);</t>
   </si>
   <si>
-    <t>Method Double formatMethod (Double a)</t>
-  </si>
-  <si>
     <t>Test formatMethod formatTest</t>
   </si>
   <si>
@@ -1516,12 +1515,18 @@
   </si>
   <si>
     <t>0.989778743847</t>
+  </si>
+  <si>
+    <t>Method String formatMethod (Double a)</t>
+  </si>
+  <si>
+    <t>Method String formatMethod_formatter (Double a, String fmt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1888,6 +1893,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1903,12 +1911,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1983,6 +1988,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2338,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2348,22 +2356,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -2385,7 +2393,7 @@
       <c r="B8" s="20">
         <v>1</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="68">
         <v>0.8414709848078965</v>
       </c>
     </row>
@@ -2393,7 +2401,7 @@
       <c r="B9" s="20">
         <v>180</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="68">
         <v>-0.80115263573383044</v>
       </c>
     </row>
@@ -2401,7 +2409,7 @@
       <c r="B10" s="20">
         <v>-180</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="68">
         <v>0.80115263573383044</v>
       </c>
     </row>
@@ -2409,7 +2417,7 @@
       <c r="B11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="68">
         <v>0.27938655435956988</v>
       </c>
     </row>
@@ -2417,7 +2425,7 @@
       <c r="B12" s="20">
         <v>0</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="68">
         <v>0</v>
       </c>
     </row>
@@ -2425,7 +2433,7 @@
       <c r="B13" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="68">
         <v>9.9998333341666645E-3</v>
       </c>
     </row>
@@ -2433,7 +2441,7 @@
       <c r="B14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="68">
         <v>0.28918602180993719</v>
       </c>
     </row>
@@ -2441,7 +2449,7 @@
       <c r="B15" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="68">
         <v>0.95603091439443222</v>
       </c>
     </row>
@@ -2449,27 +2457,27 @@
       <c r="B16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="69">
         <v>-0.95603091439443222</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -2491,7 +2499,7 @@
       <c r="B26" s="66">
         <v>1</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="68">
         <v>0.54030230586813977</v>
       </c>
     </row>
@@ -2499,7 +2507,7 @@
       <c r="B27" s="66">
         <v>180</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="68">
         <v>-0.59846006905785809</v>
       </c>
     </row>
@@ -2507,7 +2515,7 @@
       <c r="B28" s="66">
         <v>-180</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="68">
         <v>-0.59846006905785809</v>
       </c>
     </row>
@@ -2515,7 +2523,7 @@
       <c r="B29" s="43">
         <v>361</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="68">
         <v>-0.96017870901363311</v>
       </c>
     </row>
@@ -2523,15 +2531,15 @@
       <c r="B30" s="66">
         <v>0</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="72">
+      <c r="B31" s="67">
         <v>0.01</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="68">
         <v>0.99995000041666526</v>
       </c>
     </row>
@@ -2539,7 +2547,7 @@
       <c r="B32" s="42">
         <v>360.98977874384701</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="68">
         <v>-0.95727292074399684</v>
       </c>
     </row>
@@ -2547,7 +2555,7 @@
       <c r="B33" s="42">
         <v>360.01</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="68">
         <v>-0.29326590446580347</v>
       </c>
     </row>
@@ -2555,7 +2563,7 @@
       <c r="B34" s="42">
         <v>-360.01</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="68">
         <v>-0.29326590446580347</v>
       </c>
     </row>
@@ -2563,27 +2571,27 @@
       <c r="B35" s="42">
         <v>0.73908513321516101</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="69">
         <v>0.73908513321516045</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="69"/>
+      <c r="C39" s="72"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="73"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="71"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
@@ -2605,7 +2613,7 @@
       <c r="B45" s="43">
         <v>1</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="68">
         <v>1.5574077246549023</v>
       </c>
     </row>
@@ -2613,7 +2621,7 @@
       <c r="B46" s="66">
         <v>180</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="68">
         <v>1.3386902103511544</v>
       </c>
     </row>
@@ -2621,7 +2629,7 @@
       <c r="B47" s="66">
         <v>-180</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="68">
         <v>-1.3386902103511544</v>
       </c>
     </row>
@@ -2629,7 +2637,7 @@
       <c r="B48" s="43">
         <v>361</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="68">
         <v>-0.29097349455558802</v>
       </c>
     </row>
@@ -2637,7 +2645,7 @@
       <c r="B49" s="66">
         <v>0</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="68">
         <v>0</v>
       </c>
     </row>
@@ -2645,7 +2653,7 @@
       <c r="B50" s="42">
         <v>0.01</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="68">
         <v>1.0000333346667207E-2</v>
       </c>
     </row>
@@ -2653,15 +2661,15 @@
       <c r="B51" s="42">
         <v>360.98977874384701</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="68">
         <v>-0.30209359895522842</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="72">
+      <c r="B52" s="67">
         <v>360.01</v>
       </c>
-      <c r="C52" s="73">
+      <c r="C52" s="68">
         <v>-3.2599456664963626</v>
       </c>
     </row>
@@ -2669,7 +2677,7 @@
       <c r="B53" s="42">
         <v>-360.01</v>
       </c>
-      <c r="C53" s="74">
+      <c r="C53" s="69">
         <v>3.2599456664963626</v>
       </c>
     </row>
@@ -2706,25 +2714,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
@@ -2805,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
@@ -2887,25 +2895,25 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="68"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="71"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
@@ -3097,22 +3105,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -3171,7 +3179,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="72">
+      <c r="B13" s="67">
         <v>0.01</v>
       </c>
       <c r="C13" s="42" t="s">
@@ -3187,7 +3195,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="72">
+      <c r="B15" s="67">
         <v>360.01</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -3203,25 +3211,25 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="68"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="71"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -3249,7 +3257,7 @@
       <c r="B26" s="66">
         <v>1</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="67">
         <v>360.01</v>
       </c>
       <c r="D26" s="6">
@@ -3260,7 +3268,7 @@
       <c r="B27" s="66">
         <v>180</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="67">
         <v>360.01</v>
       </c>
       <c r="D27" s="6">
@@ -3271,7 +3279,7 @@
       <c r="B28" s="66">
         <v>-180</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="67">
         <v>360.01</v>
       </c>
       <c r="D28" s="6">
@@ -3282,7 +3290,7 @@
       <c r="B29" s="43">
         <v>361</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C29" s="67">
         <v>360.01</v>
       </c>
       <c r="D29" s="6">
@@ -3293,7 +3301,7 @@
       <c r="B30" s="66">
         <v>0</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="67">
         <v>360.01</v>
       </c>
       <c r="D30" s="6">
@@ -3301,10 +3309,10 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="72">
+      <c r="B31" s="67">
         <v>0.01</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C31" s="67">
         <v>360.01</v>
       </c>
       <c r="D31" s="6">
@@ -3315,7 +3323,7 @@
       <c r="B32" s="42">
         <v>360.98977874384701</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="67">
         <v>360.01</v>
       </c>
       <c r="D32" s="6">
@@ -3323,10 +3331,10 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="72">
+      <c r="B33" s="67">
         <v>360.01</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="67">
         <v>360.01</v>
       </c>
       <c r="D33" s="6">
@@ -3337,7 +3345,7 @@
       <c r="B34" s="42">
         <v>-360.01</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="67">
         <v>360.01</v>
       </c>
       <c r="D34" s="6">
@@ -3348,7 +3356,7 @@
       <c r="B35" s="66">
         <v>1</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="6">
@@ -3359,7 +3367,7 @@
       <c r="B36" s="66">
         <v>180</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="6">
@@ -3370,7 +3378,7 @@
       <c r="B37" s="66">
         <v>-180</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="6">
@@ -3381,7 +3389,7 @@
       <c r="B38" s="43">
         <v>361</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="6">
@@ -3392,7 +3400,7 @@
       <c r="B39" s="66">
         <v>0</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="6">
@@ -3400,10 +3408,10 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="72">
+      <c r="B40" s="67">
         <v>0.01</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="6">
@@ -3414,7 +3422,7 @@
       <c r="B41" s="42">
         <v>360.98977874384701</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="6">
@@ -3422,10 +3430,10 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="72">
+      <c r="B42" s="67">
         <v>360.01</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="6">
@@ -3436,7 +3444,7 @@
       <c r="B43" s="42">
         <v>-360.01</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="67" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6">
@@ -3447,7 +3455,7 @@
       <c r="B44" s="66">
         <v>1</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D44" s="6">
@@ -3458,7 +3466,7 @@
       <c r="B45" s="66">
         <v>180</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D45" s="6">
@@ -3469,7 +3477,7 @@
       <c r="B46" s="66">
         <v>-180</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D46" s="6">
@@ -3480,7 +3488,7 @@
       <c r="B47" s="43">
         <v>361</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D47" s="6">
@@ -3491,7 +3499,7 @@
       <c r="B48" s="66">
         <v>0</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D48" s="6">
@@ -3499,10 +3507,10 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="72">
+      <c r="B49" s="67">
         <v>0.01</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C49" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D49" s="6">
@@ -3513,7 +3521,7 @@
       <c r="B50" s="42">
         <v>360.98977874384701</v>
       </c>
-      <c r="C50" s="72">
+      <c r="C50" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D50" s="6">
@@ -3521,10 +3529,10 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="72">
+      <c r="B51" s="67">
         <v>360.01</v>
       </c>
-      <c r="C51" s="72">
+      <c r="C51" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D51" s="6">
@@ -3535,7 +3543,7 @@
       <c r="B52" s="42">
         <v>-360.01</v>
       </c>
-      <c r="C52" s="72">
+      <c r="C52" s="67">
         <v>-1.2549999999999999</v>
       </c>
       <c r="D52" s="6">
@@ -3572,22 +3580,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -3665,7 +3673,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="72">
+      <c r="B15" s="67">
         <v>360.01</v>
       </c>
       <c r="C15" s="8">
@@ -3681,22 +3689,22 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -3774,7 +3782,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="72">
+      <c r="B33" s="67">
         <v>360.01</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -3790,22 +3798,22 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="72"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="73"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="68"/>
+      <c r="C40" s="71"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
@@ -3880,7 +3888,7 @@
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="72">
+      <c r="B50" s="67">
         <v>360.01</v>
       </c>
       <c r="C50" s="14" t="s">
@@ -3928,25 +3936,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
@@ -4268,25 +4276,25 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="68"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="71"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="30" t="s">
@@ -4636,25 +4644,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
@@ -5010,22 +5018,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -5117,25 +5125,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
@@ -5482,25 +5490,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
@@ -5822,25 +5830,25 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="68"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="30" t="s">
@@ -6200,7 +6208,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="64" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
@@ -6235,22 +6243,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -6345,22 +6353,22 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -6454,22 +6462,22 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="72"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="73"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="71"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
@@ -6560,25 +6568,25 @@
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="68"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="71"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="30" t="s">
@@ -6934,22 +6942,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -7043,22 +7051,22 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -7152,22 +7160,22 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="72"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="73"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="71"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
@@ -7289,22 +7297,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -7363,7 +7371,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="72">
+      <c r="B13" s="67">
         <v>0.01</v>
       </c>
       <c r="C13" s="66">
@@ -7379,7 +7387,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="72">
+      <c r="B15" s="67">
         <v>360.01</v>
       </c>
       <c r="C15" s="66">
@@ -7395,22 +7403,22 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -7469,7 +7477,7 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="72">
+      <c r="B31" s="67">
         <v>0.01</v>
       </c>
       <c r="C31" s="6">
@@ -7485,7 +7493,7 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="72">
+      <c r="B33" s="67">
         <v>360.01</v>
       </c>
       <c r="C33" s="6">
@@ -7529,22 +7537,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -7635,22 +7643,22 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -7770,22 +7778,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -7876,22 +7884,22 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -7982,22 +7990,22 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="72"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="73"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="71"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
@@ -8119,22 +8127,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -8193,7 +8201,7 @@
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="72">
+      <c r="B13" s="67">
         <v>0.01</v>
       </c>
       <c r="C13" s="9">
@@ -8209,7 +8217,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="72">
+      <c r="B15" s="67">
         <v>360.01</v>
       </c>
       <c r="C15" s="7">
@@ -8225,22 +8233,22 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -8299,7 +8307,7 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="72">
+      <c r="B31" s="67">
         <v>0.01</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -8315,7 +8323,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="72">
+      <c r="B33" s="67">
         <v>360.01</v>
       </c>
       <c r="C33" s="20" t="s">
@@ -8331,25 +8339,25 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="68"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="30" t="s">
@@ -8429,7 +8437,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="72">
+      <c r="B49" s="67">
         <v>0.01</v>
       </c>
       <c r="C49" s="14" t="s">
@@ -8451,7 +8459,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="72">
+      <c r="B51" s="67">
         <v>360.01</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -8528,7 +8536,7 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="72">
+      <c r="B58" s="67">
         <v>0.01</v>
       </c>
       <c r="C58" s="14" t="s">
@@ -8550,7 +8558,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="72">
+      <c r="B60" s="67">
         <v>360.01</v>
       </c>
       <c r="C60" s="14" t="s">
@@ -8627,7 +8635,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="72">
+      <c r="B67" s="67">
         <v>0.01</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -8649,7 +8657,7 @@
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="72">
+      <c r="B69" s="67">
         <v>360.01</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -8702,22 +8710,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -8808,22 +8816,22 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="73"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
@@ -8914,22 +8922,22 @@
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="72"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="73"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="71"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
@@ -9020,22 +9028,22 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="69"/>
+      <c r="C56" s="72"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="70"/>
+      <c r="C57" s="73"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="68"/>
+      <c r="C59" s="71"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
@@ -9126,28 +9134,28 @@
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="69" t="s">
+      <c r="B74" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="67" t="s">
+      <c r="B77" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="68"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="71"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
@@ -9496,8 +9504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9508,22 +9516,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="69"/>
+      <c r="B2" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="72"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="73"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="70"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="71"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -9614,32 +9622,32 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="70" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="68"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="71"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
@@ -9650,7 +9658,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>1</v>
@@ -9760,10 +9768,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
@@ -9771,10 +9779,10 @@
         <v>180</v>
       </c>
       <c r="C36" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
@@ -9782,10 +9790,10 @@
         <v>-180</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
@@ -9793,10 +9801,10 @@
         <v>58</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
@@ -9804,10 +9812,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -9815,10 +9823,10 @@
         <v>0.01</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -9826,10 +9834,10 @@
         <v>34</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -9837,10 +9845,10 @@
         <v>360.01</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -9848,10 +9856,10 @@
         <v>47</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -9859,10 +9867,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -9870,10 +9878,10 @@
         <v>180</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
@@ -9881,10 +9889,10 @@
         <v>-180</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
@@ -9892,10 +9900,10 @@
         <v>58</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
@@ -9903,10 +9911,10 @@
         <v>0</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -9914,10 +9922,10 @@
         <v>0.01</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -9925,10 +9933,10 @@
         <v>34</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D50" s="63" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
@@ -9936,10 +9944,10 @@
         <v>34</v>
       </c>
       <c r="C51" s="63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
@@ -9947,10 +9955,10 @@
         <v>360.01</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -9958,10 +9966,10 @@
         <v>47</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
